--- a/Ecuador/Boletín/Medios/Base_medios_sitios_integracion.xlsx
+++ b/Ecuador/Boletín/Medios/Base_medios_sitios_integracion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>diarioextraec</t>
+          <t>ecuabot</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>412</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3">
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acnurecuador</t>
+          <t>paoleague</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>12.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>expresoec</t>
+          <t>ecupuntocom</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pichinchauniver</t>
+          <t>moviliderec</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teleamazonasec</t>
+          <t>diarioextraec</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>72</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ccpidg</t>
+          <t>acnurecuador</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>33.33</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rtsecuador</t>
+          <t>eluniversocom</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>59</v>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>elcomerciocom</t>
+          <t>expresoec</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>onuecuador</t>
+          <t>revistavistazo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>canalrtu</t>
+          <t>teleamazonasec</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dialoguemosinfo</t>
+          <t>larepublica_ec</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gadmpedernales</t>
+          <t>primicias</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>goberazuay</t>
+          <t>dialoguemosinfo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kch_fm</t>
+          <t>diariocorreoec</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lahoraecuador</t>
+          <t>complicefm</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="18">
@@ -765,68 +765,68 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>metroecuador</t>
+          <t>ecuadorprensaec</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>extra.ec</t>
+          <t>quenoticiasec</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>14.29</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gk.city</t>
+          <t>notimundoec</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>15.62</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>diariocorreo.com.ec</t>
+          <t>radio_sucre700</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -837,110 +837,110 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>elmercurio.com.ec</t>
+          <t>ecuadorenvivo</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>35.29</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>teleamazonas.com</t>
+          <t>ecuavisainforma</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>18.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>kch_fm</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
         <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>expreso.ec</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>15</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>13.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ecuadorenvivo.com</t>
+          <t>radio_pichincha</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>14.29</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lahora.com.ec</t>
+          <t>albo75</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>28.57</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>quenoticias.com</t>
+          <t>iamdanielypunto</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -951,72 +951,72 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>primicias.ec</t>
+          <t>3monosapios</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>57.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>vistazo.com</t>
+          <t>mundodeporec</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>42.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>zaracaytv.com</t>
+          <t>lamareaec</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>42.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>eltelegrafo.com.ec</t>
+          <t>playfmdeportes</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1027,15 +1027,15 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tctelevision.com</t>
+          <t>debatebsc</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1046,173 +1046,2947 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>manavisionec</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>14</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>elcomercio.com</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>5</v>
-      </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>elnorte.ec</t>
+          <t>wqradio_ec</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ecuadorendirecto.com</t>
+          <t>elcomerciocom</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>elvanguardistaonline.com</t>
+          <t>ecendirecto</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pichinchacomunicaciones.com.ec</t>
+          <t>elmercurioec</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>asambleanacional.gob.ec</t>
+          <t>pichinchauniver</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>centroecuador.ec</t>
+          <t>portalxvcom</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cronica.com.ec</t>
+          <t>rtsecuador</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>tomebamba</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>11</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>tvcelcomerciotv</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ccpidg</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>diariocentroec</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>directfutbolec</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>revista_gestion</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>riobambabot</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>elmercuriomanta</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>esmeraldasnews</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>onuecuador</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>primeraplanaecu</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>udlachannelec</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>lahoraecuador</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>radioactiva_ec</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>unionradio580am</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>el_telegrafo</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>machalamovil</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>7</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>radiomorena640</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>wradioec</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ecuadorwillana</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>itsabela</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>lahistoriaec</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>marcadorec</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>onumujeresecu</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>radiolacalle</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>rts_lanoticia</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cronicacuenca</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ecuadortv</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>machalanoticias</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>manabi_noticias</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>metroecuador</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>politikcorrecta</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>radioplayinter</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>saladeprensaec</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>teleramaec</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ucsg_tv</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>wambraec</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>aldiacomec</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>caravana750</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ccpd_duran</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ciespal</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>confirmadonet</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>deportespu</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>dialogodeport</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ecuadoraldia365</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ecuafootball</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>gamavisionecu</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>goberazuay</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>golecuador</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>idolopasionweb</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>laposta_ecu</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>pactoglobalecua</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>revistahogar</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>teradeportes</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>tiemporealec</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>antenaunofm</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cn_igualdad</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>diariopinion</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ecuainm_oficial</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>horatungurahua</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>laprensainforma</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>losilustreslp</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>prefecturaloja</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>prensadelbanano</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>quitosinmineria</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>radioambato1</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>radiopuntorojo</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>radioquitoec</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>radioromancefm</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>radiosucesosec</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>reportecuador</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>tctelevision</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>unpguayas_</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>680radioatalaya</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>asoguayas</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>canalrtu</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ciudadanoazul</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>conexnoticiasec</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>elnorteadiario</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>fmradiofuego</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>forbesecuador</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>gadmpedernales</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>indymedia_ec</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>lodelmomentoloj</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>radiogitanaec</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>sincadenasecu</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>somosyachaytech</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>teleradioec</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>zaracaytv</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>balompiecuador</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>centrodeprensa</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>cnimhec</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>desdemivision</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>diario_super</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ecuadorchequea</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>elnotista_ec</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>guerrerosdig_rc</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>informados_ec</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>lakolmenaec</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>macaespais</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>modelo977</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>news_ecuador</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>pinvestigacion3</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>publicafm</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>radiodistritofm</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>radiohcjb</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>rc_guayas</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>revistamariela</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ronaldvinces5</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>segmentofutbol</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>extra.ec</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>257</v>
+      </c>
+      <c r="D151" t="n">
+        <v>29</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>diariocorreo.com.ec</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>124</v>
+      </c>
+      <c r="D152" t="n">
+        <v>17</v>
+      </c>
+      <c r="E152" t="n">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>teleamazonas.com</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>116</v>
+      </c>
+      <c r="D153" t="n">
+        <v>14</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>expreso.ec</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>104</v>
+      </c>
+      <c r="D154" t="n">
+        <v>28</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>lahora.com.ec</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>100</v>
+      </c>
+      <c r="D155" t="n">
+        <v>33</v>
+      </c>
+      <c r="E155" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>elmercurio.com.ec</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>94</v>
+      </c>
+      <c r="D156" t="n">
+        <v>28</v>
+      </c>
+      <c r="E156" t="n">
+        <v>29.79</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>quenoticias.com</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>94</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>elcomercio.com</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>81</v>
+      </c>
+      <c r="D158" t="n">
+        <v>10</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>eltelegrafo.com.ec</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>77</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11</v>
+      </c>
+      <c r="E159" t="n">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>gk.city</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>65</v>
+      </c>
+      <c r="D160" t="n">
+        <v>13</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>vistazo.com</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>64</v>
+      </c>
+      <c r="D161" t="n">
+        <v>16</v>
+      </c>
+      <c r="E161" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>lanacion.com.ec</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>60</v>
+      </c>
+      <c r="D162" t="n">
+        <v>18</v>
+      </c>
+      <c r="E162" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>cre.com.ec</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>56</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ecuadorenvivo.com</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>51</v>
+      </c>
+      <c r="D164" t="n">
+        <v>16</v>
+      </c>
+      <c r="E164" t="n">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>primicias.ec</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>51</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11</v>
+      </c>
+      <c r="E165" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>pichinchacomunicaciones.com.ec</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>43</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>radiocolosal.com</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>40</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10</v>
+      </c>
+      <c r="E167" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>tctelevision.com</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>35</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ecuadorendirecto.com</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>30</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>23.33</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>elnorte.ec</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>28</v>
+      </c>
+      <c r="D170" t="n">
+        <v>7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>laverdad.ec</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>27</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>zaracaytv.com</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>20</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>manabinoticias.com</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>16</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4</v>
+      </c>
+      <c r="E173" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>notimundo.com.ec</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>15</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>diariolosandes.com.ec</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>14</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>cronica.com.ec</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>12</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>elvanguardistaonline.com</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>12</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B178" t="inlineStr">
         <is>
           <t>srradio.com.ec</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
+      <c r="C178" t="n">
+        <v>12</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>radiocentro.com.ec</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>10</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>centroecuador.ec</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>radiovisioncuenca.com</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>asambleanacional.gob.ec</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ecuadornews.com.ec</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ecuador221.com.ec</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ecuadorentodo.com</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>forbes.com.ec</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>3</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>trafficamerican.com</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Ecuador/Boletín/Medios/Base_medios_sitios_integracion.xlsx
+++ b/Ecuador/Boletín/Medios/Base_medios_sitios_integracion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>10.81</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +544,10 @@
         <v>86</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>5.81</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>5.56</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>acnurecuador</t>
+          <t>eluniversocom</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>59</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>22.03</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>eluniversocom</t>
+          <t>expresoec</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>5.08</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>expresoec</t>
+          <t>revistavistazo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>revistavistazo</t>
+          <t>teleamazonasec</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>teleamazonasec</t>
+          <t>larepublica_ec</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>larepublica_ec</t>
+          <t>primicias</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>primicias</t>
+          <t>dialoguemosinfo</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>3.7</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dialoguemosinfo</t>
+          <t>diariocorreoec</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>11.54</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="16">
@@ -727,7 +727,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>diariocorreoec</t>
+          <t>quenoticiasec</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -784,17 +784,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>quenoticiasec</t>
+          <t>radio_sucre700</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>radio_sucre700</t>
+          <t>ecuadorenvivo</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ecuadorenvivo</t>
+          <t>ecuavisainforma</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ecuavisainforma</t>
+          <t>radio_pichincha</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>kch_fm</t>
+          <t>albo75</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>radio_pichincha</t>
+          <t>iamdanielypunto</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>albo75</t>
+          <t>3monosapios</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -936,11 +936,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>iamdanielypunto</t>
+          <t>mundodeporec</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -955,11 +955,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3monosapios</t>
+          <t>lamareaec</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -974,11 +974,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mundodeporec</t>
+          <t>playfmdeportes</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -993,11 +993,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lamareaec</t>
+          <t>debatebsc</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>playfmdeportes</t>
+          <t>manavisionec</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>debatebsc</t>
+          <t>wqradio_ec</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>manavisionec</t>
+          <t>elcomerciocom</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>wqradio_ec</t>
+          <t>elmercurioec</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="35">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>elcomerciocom</t>
+          <t>ecendirecto</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ecendirecto</t>
+          <t>tomebamba</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="37">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>elmercurioec</t>
+          <t>portalxvcom</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>8.33</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="38">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pichinchauniver</t>
+          <t>rtsecuador</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>portalxvcom</t>
+          <t>tvcelcomerciotv</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1183,11 +1183,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rtsecuador</t>
+          <t>directfutbolec</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tomebamba</t>
+          <t>revista_gestion</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1221,11 +1221,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tvcelcomerciotv</t>
+          <t>riobambabot</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1240,17 +1240,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ccpidg</t>
+          <t>elmercuriomanta</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1259,11 +1259,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>diariocentroec</t>
+          <t>esmeraldasnews</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1278,11 +1278,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>directfutbolec</t>
+          <t>primeraplanaecu</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>revista_gestion</t>
+          <t>udlachannelec</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="47">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>riobambabot</t>
+          <t>radioactiva_ec</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="48">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>elmercuriomanta</t>
+          <t>unionradio580am</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1354,11 +1354,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>esmeraldasnews</t>
+          <t>el_telegrafo</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1373,17 +1373,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>onuecuador</t>
+          <t>machalamovil</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>primeraplanaecu</t>
+          <t>radiomorena640</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>udlachannelec</t>
+          <t>wradioec</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lahoraecuador</t>
+          <t>ecuadorwillana</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="54">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>radioactiva_ec</t>
+          <t>itsabela</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>unionradio580am</t>
+          <t>lahistoriaec</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="56">
@@ -1487,11 +1487,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>el_telegrafo</t>
+          <t>marcadorec</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>machalamovil</t>
+          <t>onumujeresecu</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1525,17 +1525,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>radiomorena640</t>
+          <t>radiolacalle</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="59">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>wradioec</t>
+          <t>rts_lanoticia</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ecuadorwillana</t>
+          <t>cronicacuenca</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1582,17 +1582,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>itsabela</t>
+          <t>ecuadortv</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lahistoriaec</t>
+          <t>machalanoticias</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1620,11 +1620,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>marcadorec</t>
+          <t>manabi_noticias</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1639,17 +1639,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>onumujeresecu</t>
+          <t>metroecuador</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>33.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>radiolacalle</t>
+          <t>politikcorrecta</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1677,11 +1677,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rts_lanoticia</t>
+          <t>radioplayinter</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cronicacuenca</t>
+          <t>saladeprensaec</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ecuadortv</t>
+          <t>teleramaec</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>machalanoticias</t>
+          <t>ucsg_tv</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>manabi_noticias</t>
+          <t>wambraec</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1772,17 +1772,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>metroecuador</t>
+          <t>aldiacomec</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1791,11 +1791,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>politikcorrecta</t>
+          <t>caravana750</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1810,11 +1810,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>radioplayinter</t>
+          <t>ciespal</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>saladeprensaec</t>
+          <t>confirmadonet</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>teleramaec</t>
+          <t>dialogodeport</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1867,11 +1867,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ucsg_tv</t>
+          <t>ecuadoraldia365</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1886,17 +1886,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>wambraec</t>
+          <t>ecuafootball</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>aldiacomec</t>
+          <t>gamavisionecu</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1924,17 +1924,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>caravana750</t>
+          <t>golecuador</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ccpd_duran</t>
+          <t>idolopasionweb</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ciespal</t>
+          <t>laposta_ecu</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>confirmadonet</t>
+          <t>pactoglobalecua</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2000,17 +2000,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>deportespu</t>
+          <t>revistahogar</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>dialogodeport</t>
+          <t>tiemporealec</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ecuadoraldia365</t>
+          <t>antenaunofm</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2057,17 +2057,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ecuafootball</t>
+          <t>diariopinion</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="87">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>gamavisionecu</t>
+          <t>ecuainm_oficial</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2095,17 +2095,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>goberazuay</t>
+          <t>horatungurahua</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2114,17 +2114,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>golecuador</t>
+          <t>laprensainforma</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2133,17 +2133,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>idolopasionweb</t>
+          <t>losilustreslp</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2152,11 +2152,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>laposta_ecu</t>
+          <t>prefecturaloja</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>pactoglobalecua</t>
+          <t>prensadelbanano</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -2190,11 +2190,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>revistahogar</t>
+          <t>quitosinmineria</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2209,11 +2209,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>teradeportes</t>
+          <t>radioambato1</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2228,11 +2228,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tiemporealec</t>
+          <t>radiopuntorojo</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>antenaunofm</t>
+          <t>radioquitoec</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cn_igualdad</t>
+          <t>radioromancefm</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2285,17 +2285,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>diariopinion</t>
+          <t>radiosucesosec</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ecuainm_oficial</t>
+          <t>reportecuador</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>horatungurahua</t>
+          <t>tctelevision</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2342,11 +2342,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>laprensainforma</t>
+          <t>680radioatalaya</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2361,11 +2361,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>losilustreslp</t>
+          <t>asoguayas</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>prefecturaloja</t>
+          <t>ciudadanoazul</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2399,17 +2399,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>prensadelbanano</t>
+          <t>conexnoticiasec</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
@@ -2418,11 +2418,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>quitosinmineria</t>
+          <t>elnorteadiario</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -2437,11 +2437,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>radioambato1</t>
+          <t>fmradiofuego</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2456,11 +2456,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>radiopuntorojo</t>
+          <t>forbesecuador</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -2475,11 +2475,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>radioquitoec</t>
+          <t>indymedia_ec</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>radioromancefm</t>
+          <t>lodelmomentoloj</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2513,11 +2513,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>radiosucesosec</t>
+          <t>radiogitanaec</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2532,11 +2532,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>reportecuador</t>
+          <t>sincadenasecu</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2551,11 +2551,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>tctelevision</t>
+          <t>somosyachaytech</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2570,17 +2570,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>unpguayas_</t>
+          <t>teleradioec</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>680radioatalaya</t>
+          <t>zaracaytv</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2608,11 +2608,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>asoguayas</t>
+          <t>balompiecuador</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2627,17 +2627,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>canalrtu</t>
+          <t>centrodeprensa</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2646,11 +2646,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ciudadanoazul</t>
+          <t>desdemivision</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2665,17 +2665,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>conexnoticiasec</t>
+          <t>diario_super</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2684,11 +2684,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>elnorteadiario</t>
+          <t>ecuadorchequea</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2703,11 +2703,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>fmradiofuego</t>
+          <t>guerrerosdig_rc</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>forbesecuador</t>
+          <t>informados_ec</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>gadmpedernales</t>
+          <t>lakolmenaec</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>indymedia_ec</t>
+          <t>macaespais</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2779,11 +2779,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>lodelmomentoloj</t>
+          <t>modelo977</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2798,11 +2798,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>radiogitanaec</t>
+          <t>news_ecuador</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2817,11 +2817,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sincadenasecu</t>
+          <t>pinvestigacion3</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2836,17 +2836,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>somosyachaytech</t>
+          <t>publicafm</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2855,17 +2855,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>teleradioec</t>
+          <t>radiodistritofm</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>zaracaytv</t>
+          <t>revistamariela</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>balompiecuador</t>
+          <t>ronaldvinces5</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>centrodeprensa</t>
+          <t>segmentofutbol</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2927,205 +2927,205 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>cnimhec</t>
+          <t>quenoticias.com</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E132" t="n">
-        <v>100</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>desdemivision</t>
+          <t>lanacion.com.ec</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>diario_super</t>
+          <t>cre.com.ec</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ecuadorchequea</t>
+          <t>primicias.ec</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>elnotista_ec</t>
+          <t>pichinchacomunicaciones.com.ec</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>100</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>guerrerosdig_rc</t>
+          <t>radiocolosal.com</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>informados_ec</t>
+          <t>ecuadorendirecto.com</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>lakolmenaec</t>
+          <t>laverdad.ec</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>macaespais</t>
+          <t>notimundo.com.ec</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>modelo977</t>
+          <t>manabinoticias.com</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>news_ecuador</t>
+          <t>diariolosandes.com.ec</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3136,34 +3136,34 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>pinvestigacion3</t>
+          <t>radiocentro.com.ec</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>publicafm</t>
+          <t>radiovisioncuenca.com</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -3174,53 +3174,53 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>radiodistritofm</t>
+          <t>ecuadornews.com.ec</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>radiohcjb</t>
+          <t>ecuador221.com.ec</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>rc_guayas</t>
+          <t>ecuadorentodo.com</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -3231,15 +3231,15 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>revistamariela</t>
+          <t>forbes.com.ec</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -3250,742 +3250,20 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ronaldvinces5</t>
+          <t>trafficamerican.com</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>segmentofutbol</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>extra.ec</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>257</v>
-      </c>
-      <c r="D151" t="n">
-        <v>29</v>
-      </c>
-      <c r="E151" t="n">
-        <v>11.28</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>diariocorreo.com.ec</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>124</v>
-      </c>
-      <c r="D152" t="n">
-        <v>17</v>
-      </c>
-      <c r="E152" t="n">
-        <v>13.71</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>teleamazonas.com</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>116</v>
-      </c>
-      <c r="D153" t="n">
-        <v>14</v>
-      </c>
-      <c r="E153" t="n">
-        <v>12.07</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>expreso.ec</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>104</v>
-      </c>
-      <c r="D154" t="n">
-        <v>28</v>
-      </c>
-      <c r="E154" t="n">
-        <v>26.92</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>lahora.com.ec</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>100</v>
-      </c>
-      <c r="D155" t="n">
-        <v>33</v>
-      </c>
-      <c r="E155" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>elmercurio.com.ec</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>94</v>
-      </c>
-      <c r="D156" t="n">
-        <v>28</v>
-      </c>
-      <c r="E156" t="n">
-        <v>29.79</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>quenoticias.com</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>94</v>
-      </c>
-      <c r="D157" t="n">
-        <v>12</v>
-      </c>
-      <c r="E157" t="n">
-        <v>12.77</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>elcomercio.com</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>81</v>
-      </c>
-      <c r="D158" t="n">
-        <v>10</v>
-      </c>
-      <c r="E158" t="n">
-        <v>12.35</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>eltelegrafo.com.ec</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>77</v>
-      </c>
-      <c r="D159" t="n">
-        <v>11</v>
-      </c>
-      <c r="E159" t="n">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>gk.city</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>65</v>
-      </c>
-      <c r="D160" t="n">
-        <v>13</v>
-      </c>
-      <c r="E160" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>vistazo.com</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>64</v>
-      </c>
-      <c r="D161" t="n">
-        <v>16</v>
-      </c>
-      <c r="E161" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>lanacion.com.ec</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>60</v>
-      </c>
-      <c r="D162" t="n">
-        <v>18</v>
-      </c>
-      <c r="E162" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>cre.com.ec</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>56</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ecuadorenvivo.com</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>51</v>
-      </c>
-      <c r="D164" t="n">
-        <v>16</v>
-      </c>
-      <c r="E164" t="n">
-        <v>31.37</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>primicias.ec</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>51</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11</v>
-      </c>
-      <c r="E165" t="n">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>pichinchacomunicaciones.com.ec</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>43</v>
-      </c>
-      <c r="D166" t="n">
-        <v>7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>16.28</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>radiocolosal.com</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>40</v>
-      </c>
-      <c r="D167" t="n">
-        <v>10</v>
-      </c>
-      <c r="E167" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>tctelevision.com</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>35</v>
-      </c>
-      <c r="D168" t="n">
-        <v>6</v>
-      </c>
-      <c r="E168" t="n">
-        <v>17.14</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ecuadorendirecto.com</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>30</v>
-      </c>
-      <c r="D169" t="n">
-        <v>7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>23.33</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>elnorte.ec</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>28</v>
-      </c>
-      <c r="D170" t="n">
-        <v>7</v>
-      </c>
-      <c r="E170" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>laverdad.ec</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>27</v>
-      </c>
-      <c r="D171" t="n">
-        <v>4</v>
-      </c>
-      <c r="E171" t="n">
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>zaracaytv.com</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>20</v>
-      </c>
-      <c r="D172" t="n">
-        <v>9</v>
-      </c>
-      <c r="E172" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>manabinoticias.com</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>16</v>
-      </c>
-      <c r="D173" t="n">
-        <v>4</v>
-      </c>
-      <c r="E173" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>notimundo.com.ec</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>15</v>
-      </c>
-      <c r="D174" t="n">
-        <v>2</v>
-      </c>
-      <c r="E174" t="n">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>diariolosandes.com.ec</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>14</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>cronica.com.ec</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>12</v>
-      </c>
-      <c r="D176" t="n">
-        <v>6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>elvanguardistaonline.com</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>12</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5</v>
-      </c>
-      <c r="E177" t="n">
-        <v>41.67</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>srradio.com.ec</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>12</v>
-      </c>
-      <c r="D178" t="n">
-        <v>3</v>
-      </c>
-      <c r="E178" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>radiocentro.com.ec</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>10</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>centroecuador.ec</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>8</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>radiovisioncuenca.com</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>asambleanacional.gob.ec</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>6</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" t="n">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>ecuadornews.com.ec</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>5</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ecuador221.com.ec</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>4</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>ecuadorentodo.com</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>3</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>forbes.com.ec</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>3</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>trafficamerican.com</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" t="n">
         <v>100</v>
       </c>
     </row>
